--- a/wti模型3.0/data_input_auto/predictions_rbob.xlsx
+++ b/wti模型3.0/data_input_auto/predictions_rbob.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2905"/>
+  <dimension ref="A1:B2909"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23518,7 +23518,7 @@
         <v>45954</v>
       </c>
       <c r="B2885" t="n">
-        <v>16.98</v>
+        <v>17.09</v>
       </c>
     </row>
     <row r="2886">
@@ -23526,7 +23526,7 @@
         <v>45957</v>
       </c>
       <c r="B2886" t="n">
-        <v>16.97999954223633</v>
+        <v>17.21</v>
       </c>
     </row>
     <row r="2887">
@@ -23534,7 +23534,7 @@
         <v>45958</v>
       </c>
       <c r="B2887" t="n">
-        <v>17.18406105041504</v>
+        <v>17.98</v>
       </c>
     </row>
     <row r="2888">
@@ -23542,7 +23542,7 @@
         <v>45959</v>
       </c>
       <c r="B2888" t="n">
-        <v>17.34612464904785</v>
+        <v>17.97999954223633</v>
       </c>
     </row>
     <row r="2889">
@@ -23550,7 +23550,7 @@
         <v>45960</v>
       </c>
       <c r="B2889" t="n">
-        <v>17.4238166809082</v>
+        <v>18.01077842712402</v>
       </c>
     </row>
     <row r="2890">
@@ -23558,7 +23558,7 @@
         <v>45961</v>
       </c>
       <c r="B2890" t="n">
-        <v>17.22451591491699</v>
+        <v>18.17774391174316</v>
       </c>
     </row>
     <row r="2891">
@@ -23566,7 +23566,7 @@
         <v>45964</v>
       </c>
       <c r="B2891" t="n">
-        <v>18.08322715759277</v>
+        <v>17.72660446166992</v>
       </c>
     </row>
     <row r="2892">
@@ -23574,7 +23574,7 @@
         <v>45965</v>
       </c>
       <c r="B2892" t="n">
-        <v>18.08322715759277</v>
+        <v>17.72660446166992</v>
       </c>
     </row>
     <row r="2893">
@@ -23582,7 +23582,7 @@
         <v>45966</v>
       </c>
       <c r="B2893" t="n">
-        <v>18.03629302978516</v>
+        <v>17.72660446166992</v>
       </c>
     </row>
     <row r="2894">
@@ -23590,7 +23590,7 @@
         <v>45967</v>
       </c>
       <c r="B2894" t="n">
-        <v>18.03629302978516</v>
+        <v>17.72660446166992</v>
       </c>
     </row>
     <row r="2895">
@@ -23598,7 +23598,7 @@
         <v>45968</v>
       </c>
       <c r="B2895" t="n">
-        <v>17.85989379882812</v>
+        <v>17.72660446166992</v>
       </c>
     </row>
     <row r="2896">
@@ -23606,7 +23606,7 @@
         <v>45971</v>
       </c>
       <c r="B2896" t="n">
-        <v>17.91793251037598</v>
+        <v>17.63527488708496</v>
       </c>
     </row>
     <row r="2897">
@@ -23614,7 +23614,7 @@
         <v>45972</v>
       </c>
       <c r="B2897" t="n">
-        <v>18.14787101745605</v>
+        <v>17.57709884643555</v>
       </c>
     </row>
     <row r="2898">
@@ -23622,7 +23622,7 @@
         <v>45973</v>
       </c>
       <c r="B2898" t="n">
-        <v>17.79787826538086</v>
+        <v>18.00161933898926</v>
       </c>
     </row>
     <row r="2899">
@@ -23630,7 +23630,7 @@
         <v>45974</v>
       </c>
       <c r="B2899" t="n">
-        <v>17.77165222167969</v>
+        <v>18.03572845458984</v>
       </c>
     </row>
     <row r="2900">
@@ -23638,7 +23638,7 @@
         <v>45975</v>
       </c>
       <c r="B2900" t="n">
-        <v>17.62442970275879</v>
+        <v>18.03572845458984</v>
       </c>
     </row>
     <row r="2901">
@@ -23646,7 +23646,7 @@
         <v>45978</v>
       </c>
       <c r="B2901" t="n">
-        <v>17.87584686279297</v>
+        <v>18.0733585357666</v>
       </c>
     </row>
     <row r="2902">
@@ -23654,7 +23654,7 @@
         <v>45979</v>
       </c>
       <c r="B2902" t="n">
-        <v>17.87584686279297</v>
+        <v>18.0733585357666</v>
       </c>
     </row>
     <row r="2903">
@@ -23662,7 +23662,7 @@
         <v>45980</v>
       </c>
       <c r="B2903" t="n">
-        <v>17.70755577087402</v>
+        <v>17.88693046569824</v>
       </c>
     </row>
     <row r="2904">
@@ -23670,7 +23670,7 @@
         <v>45981</v>
       </c>
       <c r="B2904" t="n">
-        <v>17.44545555114746</v>
+        <v>17.3870849609375</v>
       </c>
     </row>
     <row r="2905">
@@ -23678,7 +23678,39 @@
         <v>45982</v>
       </c>
       <c r="B2905" t="n">
-        <v>17.20778274536133</v>
+        <v>17.33011627197266</v>
+      </c>
+    </row>
+    <row r="2906">
+      <c r="A2906" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B2906" t="n">
+        <v>15.96613311767578</v>
+      </c>
+    </row>
+    <row r="2907">
+      <c r="A2907" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B2907" t="n">
+        <v>15.8209285736084</v>
+      </c>
+    </row>
+    <row r="2908">
+      <c r="A2908" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B2908" t="n">
+        <v>15.8209285736084</v>
+      </c>
+    </row>
+    <row r="2909">
+      <c r="A2909" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B2909" t="n">
+        <v>15.8251781463623</v>
       </c>
     </row>
   </sheetData>
